--- a/latest/alldocs/inv/plans/Child_plan.xlsx
+++ b/latest/alldocs/inv/plans/Child_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resbegum\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new\mine\latest\alldocs\inv\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C08FBD-DB43-4257-8E75-943CEFBBCC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741114F6-CA7C-44A4-B17F-6D0979392D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,22 +804,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -915,6 +899,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1285,8 +1285,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="29" customHeight="1"/>
@@ -1315,34 +1315,34 @@
   <sheetData>
     <row r="4" spans="3:20" ht="40" customHeight="1"/>
     <row r="5" spans="3:20" ht="13" customHeight="1">
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="3:20" ht="30" customHeight="1">
       <c r="C6" s="3"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="64"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="31"/>
       <c r="N6" s="4"/>
     </row>
@@ -1361,7 +1361,7 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="3:20" ht="31" customHeight="1">
-      <c r="C8" s="47"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="24" t="s">
         <v>19</v>
       </c>
@@ -1374,38 +1374,38 @@
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="35">
         <v>5000</v>
       </c>
-      <c r="N8" s="51"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="3:20" ht="32" customHeight="1">
-      <c r="C9" s="47"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="37">
-        <v>1600000</v>
-      </c>
-      <c r="G9" s="37"/>
+      <c r="F9" s="63">
+        <v>2000000</v>
+      </c>
+      <c r="G9" s="63"/>
       <c r="H9" s="26"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="36"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="3:20" ht="8" customHeight="1">
-      <c r="C10" s="47"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1416,18 +1416,18 @@
       <c r="K10" s="25"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="51"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="3:20" ht="28.5">
-      <c r="C11" s="47"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="38">
+      <c r="F11" s="64">
         <v>0.1</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="22" t="s">
@@ -1442,10 +1442,10 @@
       <c r="M11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="51"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="3:20" ht="28.5">
-      <c r="C12" s="47"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="21" t="s">
         <v>0</v>
       </c>
@@ -1474,19 +1474,19 @@
         <f>IF(J12&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L12,-'Child Future Planning Sheet'!K12,1), "N A")</f>
         <v>66319.045490015851</v>
       </c>
-      <c r="N12" s="51"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="3:20" ht="28.5">
-      <c r="C13" s="47"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="61">
+      <c r="F13" s="57">
         <f>FV(F11,F12-F8,0,-F9)</f>
-        <v>5523633.943028965</v>
-      </c>
-      <c r="G13" s="62"/>
+        <v>6904542.4287862061</v>
+      </c>
+      <c r="G13" s="58"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="7">
@@ -1505,10 +1505,10 @@
         <f>IF(J13&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L13,-'Child Future Planning Sheet'!K13,1), "N A")</f>
         <v>145901.90007803484</v>
       </c>
-      <c r="N13" s="51"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="3:20" ht="28.5">
-      <c r="C14" s="47"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1531,18 +1531,18 @@
         <f>IF(J14&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L14,-'Child Future Planning Sheet'!K14,1), "N A")</f>
         <v>241401.3255836576</v>
       </c>
-      <c r="N14" s="51"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="3:20" ht="28.5">
-      <c r="C15" s="47"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="59">
+      <c r="F15" s="55">
         <v>0.2</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="7">
@@ -1561,10 +1561,10 @@
         <f>IF(J15&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L15,-'Child Future Planning Sheet'!K15,1), "N A")</f>
         <v>356000.63619040488</v>
       </c>
-      <c r="N15" s="51"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="3:20" ht="28.5">
-      <c r="C16" s="47"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
@@ -1587,20 +1587,20 @@
         <f>IF(J16&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L16,-'Child Future Planning Sheet'!K16,1), "N A")</f>
         <v>493519.80891850148</v>
       </c>
-      <c r="N16" s="51"/>
+      <c r="N16" s="47"/>
       <c r="R16" s="2"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="3:14" ht="28.5">
-      <c r="C17" s="47"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="39">
+      <c r="F17" s="65">
         <v>0</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7">
@@ -1619,10 +1619,10 @@
         <f>IF(J17&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L17,-'Child Future Planning Sheet'!K17,1), "N A")</f>
         <v>658542.8161922174</v>
       </c>
-      <c r="N17" s="51"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="3:14" ht="28.5">
-      <c r="C18" s="47"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1645,19 +1645,19 @@
         <f>IF(J18&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L18,-'Child Future Planning Sheet'!K18,1), "N A")</f>
         <v>856570.42492067639</v>
       </c>
-      <c r="N18" s="51"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="3:14" ht="28.5">
-      <c r="C19" s="47"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="41">
+      <c r="F19" s="37">
         <f>-PMT(NOMINAL(F15,12)/12,(F12-F8)*12,-F17,F13,1)</f>
-        <v>8587.0760841070733</v>
-      </c>
-      <c r="G19" s="42"/>
+        <v>10733.845105133842</v>
+      </c>
+      <c r="G19" s="38"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="7">
@@ -1676,10 +1676,10 @@
         <f>IF(J19&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L19,-'Child Future Planning Sheet'!K19,1), "N A")</f>
         <v>1094203.5553948272</v>
       </c>
-      <c r="N19" s="51"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="3:14" ht="28.5">
-      <c r="C20" s="47"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="5"/>
@@ -1702,19 +1702,19 @@
         <f>IF(J20&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L20,-'Child Future Planning Sheet'!K20,1), "N A")</f>
         <v>1379363.3119638078</v>
       </c>
-      <c r="N20" s="51"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="3:14" ht="28.5">
-      <c r="C21" s="47"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="41">
+      <c r="F21" s="37">
         <f>-PMT(F15,F12-F8,-F17,F13,1)</f>
-        <v>94914.448241353966</v>
-      </c>
-      <c r="G21" s="42"/>
+        <v>118643.06030169237</v>
+      </c>
+      <c r="G21" s="38"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="7">
@@ -1733,10 +1733,10 @@
         <f>IF(J21&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L21,-'Child Future Planning Sheet'!K21,1), "N A")</f>
         <v>1721555.0198465844</v>
       </c>
-      <c r="N21" s="51"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="3:14" ht="28.5">
-      <c r="C22" s="47"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="5"/>
       <c r="E22" s="13"/>
       <c r="F22" s="5"/>
@@ -1759,19 +1759,19 @@
         <f>IF(J22&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L22,-'Child Future Planning Sheet'!K22,1), "N A")</f>
         <v>2132185.0693059163</v>
       </c>
-      <c r="N22" s="51"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="3:14" ht="28.5">
-      <c r="C23" s="47"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="41">
+      <c r="F23" s="37">
         <f>-PV(F15,F12-F8,0,F13)</f>
-        <v>516260.254420735</v>
-      </c>
-      <c r="G23" s="42"/>
+        <v>645325.31802591868</v>
+      </c>
+      <c r="G23" s="38"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="7">
@@ -1790,10 +1790,10 @@
         <f>IF(J23&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L23,-'Child Future Planning Sheet'!K23,1), "N A")</f>
         <v>2624941.1286571142</v>
       </c>
-      <c r="N23" s="51"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="3:14" ht="28.5">
-      <c r="C24" s="47"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1816,10 +1816,10 @@
         <f>IF(J24&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L24,-'Child Future Planning Sheet'!K24,1), "N A")</f>
         <v>3216248.3998785517</v>
       </c>
-      <c r="N24" s="51"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="3:14" ht="28.5">
-      <c r="C25" s="47"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1842,10 +1842,10 @@
         <f>IF(J25&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L25,-'Child Future Planning Sheet'!K25,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N25" s="51"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="3:14" ht="28.5">
-      <c r="C26" s="47"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1868,10 +1868,10 @@
         <f>IF(J26&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L26,-'Child Future Planning Sheet'!K26,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N26" s="51"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="3:14" ht="28.5">
-      <c r="C27" s="47"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1894,10 +1894,10 @@
         <f>IF(J27&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L27,-'Child Future Planning Sheet'!K27,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N27" s="51"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="3:14" ht="28.5">
-      <c r="C28" s="47"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1920,10 +1920,10 @@
         <f>IF(J28&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L28,-'Child Future Planning Sheet'!K28,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N28" s="51"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="3:14" ht="28.5">
-      <c r="C29" s="47"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1946,17 +1946,17 @@
         <f>IF(J29&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L29,-'Child Future Planning Sheet'!K29,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N29" s="51"/>
+      <c r="N29" s="47"/>
     </row>
     <row r="30" spans="3:14" ht="28.5">
-      <c r="C30" s="47"/>
-      <c r="D30" s="56" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="6"/>
       <c r="J30" s="7">
         <f t="shared" si="0"/>
@@ -1974,19 +1974,19 @@
         <f>IF(J30&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L30,-'Child Future Planning Sheet'!K30,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N30" s="51"/>
+      <c r="N30" s="47"/>
     </row>
     <row r="31" spans="3:14" ht="28.5">
-      <c r="C31" s="47"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="6"/>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
@@ -2004,19 +2004,19 @@
         <f>IF(J31&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L31,-'Child Future Planning Sheet'!K31,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N31" s="51"/>
+      <c r="N31" s="47"/>
     </row>
     <row r="32" spans="3:14" ht="28.5">
-      <c r="C32" s="47"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7">
         <f t="shared" si="0"/>
@@ -2034,19 +2034,19 @@
         <f>IF(J32&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L32,-'Child Future Planning Sheet'!K32,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N32" s="51"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="3:14" ht="28.5">
-      <c r="C33" s="47"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="54"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="6"/>
       <c r="J33" s="7">
         <f t="shared" si="0"/>
@@ -2064,10 +2064,10 @@
         <f>IF(J33&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L33,-'Child Future Planning Sheet'!K33,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N33" s="51"/>
+      <c r="N33" s="47"/>
     </row>
     <row r="34" spans="3:14" ht="28.5">
-      <c r="C34" s="47"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2090,25 +2090,29 @@
         <f>IF(J34&lt;$F$12,FV(NOMINAL($F$15,12)/12,12,-'Child Future Planning Sheet'!L34,-'Child Future Planning Sheet'!K34,1), "N A")</f>
         <v>N A</v>
       </c>
-      <c r="N34" s="51"/>
+      <c r="N34" s="47"/>
     </row>
     <row r="35" spans="3:14" ht="13" customHeight="1">
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
@@ -2125,10 +2129,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
